--- a/500all/speech_level/speeches_CHRG-114hhrg94234.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94234.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412513</t>
   </si>
   <si>
-    <t>Paul Cook</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cook. The hearing will come to order. The subcommittee today meets to receive testimony on the Navy, Marine Corps, and Air Force budget requests for combat aircraft programs for fiscal year 2016.    I would like to welcome our distinguished panel of witnesses today, Vice Admiral Paul Grosklags, Principal Military Deputy to the Assistant Secretary of the Navy, Research Development and Acquisition. And we just had a hearing once again. So we are wearing you out, Admiral. Lieutenant General Jon M. Davis, Deputy Commandant of the Marine Corps for Aviation; Rear Admiral Michael C. Manazir, Director of Air Warfare Division for the U.S. Navy; Major General Timothy M. Ray, Director, Global Power Programs; and Lieutenant General Mike Holmes, Air Force Deputy Chief of Staff for Plans and Requirements.    First of all, I thank you for all your service and look forward to the testimony today.    As we review the fiscal year budget request for combat aviation forces, it is clear the Budget Control Act [BCA] of 2011 continues to force the military to make short-time decisions that have long-term consequences on our national security.    It is clear that the combat aviation programs of the Navy, Marine Corps, and Air Force are confronted by tradeoffs in capability, capacity, and readiness. Capabilities are those modernization programs that provide the systems necessary to defeat current and future threats. Capacity is the ability to retain sufficient force structure to meet current and future requirements. And readiness is the training in these systems.    The Navy and Marine Corps are facing shortfalls in fighter aircraft for fiscal year 2016. The Navy deferred 16 F-35s in the future defense program, trading capability for today's readiness. The Navy has truncated its procurement of F/A-18E/F aircraft, also trading capacity for readiness.    Now the Navy will be 134 aircraft below its requirements of fighter aircraft in the 2020 timeframe, with an average of about 100 aircraft short between now and 2020. If we assume that a shortfall of 65 aircraft will be manageable for the Navy, this leaves the Navy short about 35 aircraft, or 3 squadrons of strike fighters.    Last year, the Air Force canceled the F-16's combat avionics program extension, or CAPES. CAPES would have equipped the block 40, 42, 50, and 52 fleets with new radars and defense systems that increase survivability against emerging threats. This trade was made to meet today's readiness requirements. This year, as it did last year, the Air Force is proposing to retire over half of its A-10 fleet, reducing fighter capacity below the Air Force's 2,000-aircraft requirement.    Increasing the OCO [overseas contingency operations] funding request to offset the solution is something that you have seen in the papers, on the news. There was a critical vote taken last night. I am proud to say I think it went the right way. We didn't get the complete fix that many people, such as myself, wanted. But this is a beginning. And, of course, the ideal solution from my standpoint is to repeal the sequester.    But this is not going to happen with the deal. But as I said, we did get part of the pie. And we've got to continue this. And much of your testimony, many of you have been here before. And it is not just this committee that has to hear this, it is the rest of Congress. I am concerned that this budget request will reduce both capacity and, in our strike fighter forces, affect readiness and result in a higher risk in achieving military objectives in the future.    I look forward to our service witness testimony today, which I hope will expand on the risks associated with the capacity and capability reductions in our combat aviation forces.    I was going to turn to Ms. Sanchez. I think she is running a little late. But when she is--when she gets here, I will ask her to make an opening statement as the ranking member.    And without objection, all witnesses' prepared statements will be included in the hearing record.    Admiral Grosklags, will you please proceed with your opening statement, followed by the rest of the panel as we go down. Thank you.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Grosklags</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Grosklags. Thank you, Mr. Chairman, distinguished members of the subcommittee. We appreciate the opportunity to appear before you today to address our Navy and Marine Corps aviation programs.    As you well know, the United States is a maritime nation. We have global interests and global responsibilities. Our Navy and Marine Corps provide the continuously forward-deployed persistent presence which ensures our Nation's global reach, global access, and ability to project power, regardless of changing alliances, permissions, or circumstances on the ground.    We move at will across the world's oceans, the seas, and the littorals, providing our Nation's leaders with offshore options where it matters and when it matters. The aviation component of our Navy and Marine Corps team enables our sea-based and expeditionary naval forces to bring simultaneous influence over vast stretches of maritime environment, across the shoreline, and deep inland.    As such, it is critical that our aviation forces remain always ready and poised to engage in a moment's notice, with the required capacity and capability to influence events and, if necessary, to fight and to win.    Last year, we saw significant advancements in many of our aviation programs: the first P-8 deployment to the Western Pacific; the standup of a second Special Purpose MAGTF [Marine Air-Ground Task Force] formed around the capabilities of the V-22 and the KC-130J; initial qualification of the Joint Strike Fighter onboard an aircraft carrier.    This year, we look forward to a number of additional milestones, to include the initial operational capability [IOC] of the F-35B with the Marine Corps; initiation of sensor testing on our MQ-4C Triton ISR [intelligence, surveillance, and reconnaissance] platform; the first flight of the Marine Corps CH53K by the end of this year; our first deployment of the the E-2D Hawkeye started this month on the Theodore Roosevelt. Along with the Air Force, we have declared initial operational capability for the AIM-120D and will IOC the AIM-9X Block II this month.    For 2016, our naval aviation budget request is based on a number of central themes: fifth generation fighter and attack capability; netted persistent multi-role intelligence, surveillance, and reconnaissance; critical supporting capabilities in electronic attack, maritime patrol, and vertical lift; advanced strike weapons programs; readiness recovery; and targeted modernization of the force to ensure continued relevance and sustainability.    As this subcommittee is well aware, while our security interests face an increasing array of threats and demands, our budget position grows ever more challenging. We will continue to prioritize the readiness of the forces currently forward deployed over all other investments. However, we must also recognize that those Navy and Marine Corps forces this Nation deploys to meet the future threat will be dependent upon the modernization and the readiness efforts provided by the programs of today.    Across the Department, our strategies for the development, procurement, and sustainment of both current and future weapon systems are critically dependent upon stable and--excuse me--predictable funding at a level commensurate with our President's Budget 2016 [PB16] budget request.    The alternative has been made clear by our secretaries and our service chiefs. A smaller force, a force less forward deployed, a force slower to respond in a crisis, and a force which, when it does respond, will be less capable and more vulnerable.    Mr. Chairman, we request your leadership and the support of this subcommittee to provide the resources that enable your Navy and Marine Corps to be our Nation's first responders. We again thank you for the opportunity and look forward to your questions.    [The joint prepared statement of Admiral Grosklags, Admiral Manazir, and General Davis can be found in the Appendix on page 25.]</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t xml:space="preserve">    Mr. Cook. Thank you.    Admiral.</t>
   </si>
   <si>
-    <t>Manazir</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Manazir. Yes, sir. Same thing. One statement for us.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>400356</t>
   </si>
   <si>
-    <t>Loretta Sanchez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you, Mr. Chairman. So nice to have a Californian chairing today. I am sorry I was late, gentlemen; I was doing the C-SPAN show this morning and didn't get over in time.    This year's budget is up significantly for all three services compared to fiscal year 2015. In the Navy, we have a $1.3 billion increase above 2015 levels. In the Air Force, a $3.2 billion increase. Of course, this is all going to depend on the whole process that we have here in the Congress and where we end up. Also, with respect to sequestration, what goes on there.    In addition to increased funding, the Air Force has deferred the potential retirement of a number of intelligence, surveillance, and reconnaissance aircraft. We see the E-8 Joint STARS, the E-3 AWACS [Airborne Warning and Control System], and the U-2 aircraft have all been postponed until after 2019.    The Air Force also has increased funding sustainability for MQR Reaper unmanned aircraft. But I also want to note to our committee that you--the services also made some difficult choices. I see that you are still proposing to retire the A-10 over the next 4-year period in an effort to save about $4 billion. And the Navy has not requested additional production of the F/A-18 Super Hornets. And it has cut 16 F-35C aircraft over its 5-year budget.    So I look forward to hearing from you how you came to those decisions and what that--whether that really needs to stay in place in order for you to get to where you think you need to be.    Both services have also requested increased amounts of funding for aerial munitions of almost all categories; traditional bombs, long-range precision-guided missiles, et cetera. I would also like to point out that many of these aerial weapons programs are actually performing very well. And they are under cost, they are in schedule, and they are on performance targets. So that is a good thing.    For example the, AIM-120D and the the AIM-9X Block II air-to-air missiles have emerged from operational testing with outstanding results. I mean, there is some good news in what you all are doing. Both programs are critical to maintaining U.S. air superiority in any future conflicts, so it is important to get them right.    It is also worth noting that these are joint programs between Air Force and Navy. And I also like to see when that happens. Because hopefully over time, maintenance and operation is also lowered.    We are going to have in April a hearing on the F-35 program, obviously. It is the big elephant in the room in so many ways. But I think it is still relevant to the overall topic today of the budget. And while I know that we need the F-35 program, it is the only production plane that we have for our future that we have got, there are still some concerns about the developing--the development and the timing and the testing of this aircraft.    I am worried about the serious engine fire that we had last year. It is a concern because there is just one engine that we have. And so we need to get to the bottom of what happened. Hopefully, it was just an isolated incident. But we need to figure that out.    And secondly, the F-35 is entering one of the--what I think is one of the most difficult stages, and that is where we see all the software and the integration and everything come together. And this fusion is incredibly important and, from what I am hearing, may not be going as well as we had hoped. So I hope you will enlighten us a little bit where you can on that.    So the engine and the software, very, very critical pieces of making sure that we get this aircraft going and online and tested and flown and, you know, for the future of not only our services, Mr. Chairman, but I have talked to a lot of our international partners who have signed up for these aircraft. And they are constantly asking me are we going to get this done.    So I appreciate the time. And I look forward to the answers today.</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>412606</t>
   </si>
   <si>
-    <t>Donald Norcross</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Norcross. Thank you, Chairman. Appreciate the time. And welcome to the panel. Certainly appreciate your service.    I was recently down in Pomona near Atlantic City visiting our unit there, the Air National Guard, and they are running F-16s out of there. And time after time, their fliers and certainly the mechanics were asking me about the potential upgrades to the radar system. I am not sure General Ray or Holmes, who is better able to address that.    What is the schedule for that? They certainly are at wits' end waiting for that upgrade, which they had indicated been postponed several times. Thank you.    General Holmes. So thank you, sir, for that question. With your permission, we will both answer a couple of parts of it.    So we canceled the CAPES program, as the chairman said, because it was unaffordable at our current budget level. We have received, as I am sure you know, a joint urgent operational needs request from USNORTHCOM [U.S. Northern Command] to take a look at how we might rapidly equip the F-16s that defend our Nation with advanced electronically scanned antenna radar, with an AESA radar that provides increased capability to those airplanes.    As we look at that the request, that is important for that organization, but it is also part of an entire kill chain that would have to be in place to be able to let it operate. So you need both the sensor on the airplane, and then you need a surveillance system that would help you detect the kind of small cross-section threats that AESA radar gives you capability for, and you need the command and control system to be able to do it.    Those elements are falling in place here in the National Capital Region. And we expect to try to move forward to provide a rapid capability there first, and then see how we would expand it across the country. And I will ask General Ray to talk about the details of that timeline and process.    General Ray. Good morning, sir. Thank you for the question.    We are looking very closely at the capabilities that are required. We take this mission very seriously, defending the Nation's skies. Looking at the F-16 and the options that we have in front of us, we want to make very clear in our minds that we are not limiting the capabilities in any efforts that we take on.    So any of the capabilities that are out there now, existing radars, our ability to integrate that completely and to make a complete upgraded aircraft, is a very lengthy period of time. So to meet the UON [urgent operational need] timelines, which is in the next 18 months, we have to look at putting radars on the airplanes. But we may lose some capabilities over what we actually have right now. So we want to strike the very careful balance between bringing on what we require for this specific mission and not making the capabilities of the airplane less.    Now, we believe that we should have a decision here in the next month or two in terms of exactly how we will do that. We are looking at a couple of options in terms of how we would acquire that. And certainly, there are several different amounts of capability that we can add over time. I believe that we should have a pretty good schedule here in the next 1 to 2 months that would describe how we will get after this problem.    I think that, as General Holmes mentions, the National Capital Region is the easier part in terms of the entire kill chain. We remain concerned about the coverage for the rest of the country and the rest of the F-16 fleet. So I think that makes us focus very close here to the Washington, DC, area and what we need to cover this area with the follow-on effort to go think through how best we will equip those airplanes in the future.</t>
   </si>
   <si>
@@ -127,9 +112,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    Thank you, gentlemen, for your time today and your testimony. Really appreciate it.    General Holmes, wanted to follow up on the discussions on the A-10. Last cycle you stated--or the Air Force stated--there was a savings of $4.2 billion to divest in the A-10. And today you said $4.7 billion, and then another time $4.9 billion. Can you just confirm what the number is?    General Holmes. Yes, ma'am. Thank you. The number is $4.7 billion, is what we are bringing this year.</t>
   </si>
   <si>
@@ -196,9 +178,6 @@
     <t>412614</t>
   </si>
   <si>
-    <t>Stephen Knight</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chairman. I will try and keep my comments a little brief and just allow you to answer. To the Navy, I haven't heard anything about the Growler program. Are we on stage there, are we needing more Growlers, especially as the F-35 comes online a Growler is going to be a very useful tool with the F-35.</t>
   </si>
   <si>
@@ -223,9 +202,6 @@
     <t>412579</t>
   </si>
   <si>
-    <t>Marc A. Veasey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Veasey. Thank you. Thank you, Mr. Chair. I want----</t>
   </si>
   <si>
@@ -254,9 +230,6 @@
   </si>
   <si>
     <t>400158</t>
-  </si>
-  <si>
-    <t>Sam Graves</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Graves. Real quickly. And Admiral Manazir, you talked about the shortfall. And I am very concerned about this. When we have fewer airframes out there to do the job, we put a lot of operational fatigue on those airplanes. And you talked about this.    And just for the record again, and so I can start working to rectify this, how many airplanes do you need, how many Super Hornets do you need to eliminate that shortfall? How many do you need to procure?</t>
@@ -667,11 +640,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -691,13 +662,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -719,11 +688,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -743,13 +710,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -771,11 +736,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -795,13 +758,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -823,11 +784,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -849,11 +808,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -873,13 +830,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -901,11 +856,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -927,11 +880,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -951,13 +902,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -979,11 +928,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1003,13 +950,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1029,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1057,11 +1000,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1081,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1107,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1133,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1159,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1185,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1211,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>37</v>
-      </c>
-      <c r="H23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1237,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1263,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1289,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1315,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1341,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1367,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1393,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1419,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1447,11 +1360,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1471,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1497,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1525,11 +1432,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1549,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1575,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1603,11 +1504,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1627,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" t="s">
-        <v>60</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1653,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1679,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" t="s">
-        <v>60</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1705,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" t="s">
-        <v>60</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1733,11 +1624,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1757,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>59</v>
-      </c>
-      <c r="G44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1785,11 +1672,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1809,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1837,11 +1720,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1861,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1887,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1913,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1939,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1967,11 +1840,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1991,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
         <v>69</v>
-      </c>
-      <c r="H53" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2019,11 +1888,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2043,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2069,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2095,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2123,11 +1984,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94234.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94234.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>412513</t>
   </si>
   <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cook. The hearing will come to order. The subcommittee today meets to receive testimony on the Navy, Marine Corps, and Air Force budget requests for combat aircraft programs for fiscal year 2016.    I would like to welcome our distinguished panel of witnesses today, Vice Admiral Paul Grosklags, Principal Military Deputy to the Assistant Secretary of the Navy, Research Development and Acquisition. And we just had a hearing once again. So we are wearing you out, Admiral. Lieutenant General Jon M. Davis, Deputy Commandant of the Marine Corps for Aviation; Rear Admiral Michael C. Manazir, Director of Air Warfare Division for the U.S. Navy; Major General Timothy M. Ray, Director, Global Power Programs; and Lieutenant General Mike Holmes, Air Force Deputy Chief of Staff for Plans and Requirements.    First of all, I thank you for all your service and look forward to the testimony today.    As we review the fiscal year budget request for combat aviation forces, it is clear the Budget Control Act [BCA] of 2011 continues to force the military to make short-time decisions that have long-term consequences on our national security.    It is clear that the combat aviation programs of the Navy, Marine Corps, and Air Force are confronted by tradeoffs in capability, capacity, and readiness. Capabilities are those modernization programs that provide the systems necessary to defeat current and future threats. Capacity is the ability to retain sufficient force structure to meet current and future requirements. And readiness is the training in these systems.    The Navy and Marine Corps are facing shortfalls in fighter aircraft for fiscal year 2016. The Navy deferred 16 F-35s in the future defense program, trading capability for today's readiness. The Navy has truncated its procurement of F/A-18E/F aircraft, also trading capacity for readiness.    Now the Navy will be 134 aircraft below its requirements of fighter aircraft in the 2020 timeframe, with an average of about 100 aircraft short between now and 2020. If we assume that a shortfall of 65 aircraft will be manageable for the Navy, this leaves the Navy short about 35 aircraft, or 3 squadrons of strike fighters.    Last year, the Air Force canceled the F-16's combat avionics program extension, or CAPES. CAPES would have equipped the block 40, 42, 50, and 52 fleets with new radars and defense systems that increase survivability against emerging threats. This trade was made to meet today's readiness requirements. This year, as it did last year, the Air Force is proposing to retire over half of its A-10 fleet, reducing fighter capacity below the Air Force's 2,000-aircraft requirement.    Increasing the OCO [overseas contingency operations] funding request to offset the solution is something that you have seen in the papers, on the news. There was a critical vote taken last night. I am proud to say I think it went the right way. We didn't get the complete fix that many people, such as myself, wanted. But this is a beginning. And, of course, the ideal solution from my standpoint is to repeal the sequester.    But this is not going to happen with the deal. But as I said, we did get part of the pie. And we've got to continue this. And much of your testimony, many of you have been here before. And it is not just this committee that has to hear this, it is the rest of Congress. I am concerned that this budget request will reduce both capacity and, in our strike fighter forces, affect readiness and result in a higher risk in achieving military objectives in the future.    I look forward to our service witness testimony today, which I hope will expand on the risks associated with the capacity and capability reductions in our combat aviation forces.    I was going to turn to Ms. Sanchez. I think she is running a little late. But when she is--when she gets here, I will ask her to make an opening statement as the ranking member.    And without objection, all witnesses' prepared statements will be included in the hearing record.    Admiral Grosklags, will you please proceed with your opening statement, followed by the rest of the panel as we go down. Thank you.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Grosklags</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Grosklags. Thank you, Mr. Chairman, distinguished members of the subcommittee. We appreciate the opportunity to appear before you today to address our Navy and Marine Corps aviation programs.    As you well know, the United States is a maritime nation. We have global interests and global responsibilities. Our Navy and Marine Corps provide the continuously forward-deployed persistent presence which ensures our Nation's global reach, global access, and ability to project power, regardless of changing alliances, permissions, or circumstances on the ground.    We move at will across the world's oceans, the seas, and the littorals, providing our Nation's leaders with offshore options where it matters and when it matters. The aviation component of our Navy and Marine Corps team enables our sea-based and expeditionary naval forces to bring simultaneous influence over vast stretches of maritime environment, across the shoreline, and deep inland.    As such, it is critical that our aviation forces remain always ready and poised to engage in a moment's notice, with the required capacity and capability to influence events and, if necessary, to fight and to win.    Last year, we saw significant advancements in many of our aviation programs: the first P-8 deployment to the Western Pacific; the standup of a second Special Purpose MAGTF [Marine Air-Ground Task Force] formed around the capabilities of the V-22 and the KC-130J; initial qualification of the Joint Strike Fighter onboard an aircraft carrier.    This year, we look forward to a number of additional milestones, to include the initial operational capability [IOC] of the F-35B with the Marine Corps; initiation of sensor testing on our MQ-4C Triton ISR [intelligence, surveillance, and reconnaissance] platform; the first flight of the Marine Corps CH53K by the end of this year; our first deployment of the the E-2D Hawkeye started this month on the Theodore Roosevelt. Along with the Air Force, we have declared initial operational capability for the AIM-120D and will IOC the AIM-9X Block II this month.    For 2016, our naval aviation budget request is based on a number of central themes: fifth generation fighter and attack capability; netted persistent multi-role intelligence, surveillance, and reconnaissance; critical supporting capabilities in electronic attack, maritime patrol, and vertical lift; advanced strike weapons programs; readiness recovery; and targeted modernization of the force to ensure continued relevance and sustainability.    As this subcommittee is well aware, while our security interests face an increasing array of threats and demands, our budget position grows ever more challenging. We will continue to prioritize the readiness of the forces currently forward deployed over all other investments. However, we must also recognize that those Navy and Marine Corps forces this Nation deploys to meet the future threat will be dependent upon the modernization and the readiness efforts provided by the programs of today.    Across the Department, our strategies for the development, procurement, and sustainment of both current and future weapon systems are critically dependent upon stable and--excuse me--predictable funding at a level commensurate with our President's Budget 2016 [PB16] budget request.    The alternative has been made clear by our secretaries and our service chiefs. A smaller force, a force less forward deployed, a force slower to respond in a crisis, and a force which, when it does respond, will be less capable and more vulnerable.    Mr. Chairman, we request your leadership and the support of this subcommittee to provide the resources that enable your Navy and Marine Corps to be our Nation's first responders. We again thank you for the opportunity and look forward to your questions.    [The joint prepared statement of Admiral Grosklags, Admiral Manazir, and General Davis can be found in the Appendix on page 25.]</t>
   </si>
   <si>
@@ -70,6 +82,9 @@
     <t xml:space="preserve">    Mr. Cook. Thank you.    Admiral.</t>
   </si>
   <si>
+    <t>Manazir</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Manazir. Yes, sir. Same thing. One statement for us.</t>
   </si>
   <si>
@@ -82,6 +97,12 @@
     <t>400356</t>
   </si>
   <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Loretta</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you, Mr. Chairman. So nice to have a Californian chairing today. I am sorry I was late, gentlemen; I was doing the C-SPAN show this morning and didn't get over in time.    This year's budget is up significantly for all three services compared to fiscal year 2015. In the Navy, we have a $1.3 billion increase above 2015 levels. In the Air Force, a $3.2 billion increase. Of course, this is all going to depend on the whole process that we have here in the Congress and where we end up. Also, with respect to sequestration, what goes on there.    In addition to increased funding, the Air Force has deferred the potential retirement of a number of intelligence, surveillance, and reconnaissance aircraft. We see the E-8 Joint STARS, the E-3 AWACS [Airborne Warning and Control System], and the U-2 aircraft have all been postponed until after 2019.    The Air Force also has increased funding sustainability for MQR Reaper unmanned aircraft. But I also want to note to our committee that you--the services also made some difficult choices. I see that you are still proposing to retire the A-10 over the next 4-year period in an effort to save about $4 billion. And the Navy has not requested additional production of the F/A-18 Super Hornets. And it has cut 16 F-35C aircraft over its 5-year budget.    So I look forward to hearing from you how you came to those decisions and what that--whether that really needs to stay in place in order for you to get to where you think you need to be.    Both services have also requested increased amounts of funding for aerial munitions of almost all categories; traditional bombs, long-range precision-guided missiles, et cetera. I would also like to point out that many of these aerial weapons programs are actually performing very well. And they are under cost, they are in schedule, and they are on performance targets. So that is a good thing.    For example the, AIM-120D and the the AIM-9X Block II air-to-air missiles have emerged from operational testing with outstanding results. I mean, there is some good news in what you all are doing. Both programs are critical to maintaining U.S. air superiority in any future conflicts, so it is important to get them right.    It is also worth noting that these are joint programs between Air Force and Navy. And I also like to see when that happens. Because hopefully over time, maintenance and operation is also lowered.    We are going to have in April a hearing on the F-35 program, obviously. It is the big elephant in the room in so many ways. But I think it is still relevant to the overall topic today of the budget. And while I know that we need the F-35 program, it is the only production plane that we have for our future that we have got, there are still some concerns about the developing--the development and the timing and the testing of this aircraft.    I am worried about the serious engine fire that we had last year. It is a concern because there is just one engine that we have. And so we need to get to the bottom of what happened. Hopefully, it was just an isolated incident. But we need to figure that out.    And secondly, the F-35 is entering one of the--what I think is one of the most difficult stages, and that is where we see all the software and the integration and everything come together. And this fusion is incredibly important and, from what I am hearing, may not be going as well as we had hoped. So I hope you will enlighten us a little bit where you can on that.    So the engine and the software, very, very critical pieces of making sure that we get this aircraft going and online and tested and flown and, you know, for the future of not only our services, Mr. Chairman, but I have talked to a lot of our international partners who have signed up for these aircraft. And they are constantly asking me are we going to get this done.    So I appreciate the time. And I look forward to the answers today.</t>
   </si>
   <si>
@@ -100,6 +121,12 @@
     <t>412606</t>
   </si>
   <si>
+    <t>Norcross</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Norcross. Thank you, Chairman. Appreciate the time. And welcome to the panel. Certainly appreciate your service.    I was recently down in Pomona near Atlantic City visiting our unit there, the Air National Guard, and they are running F-16s out of there. And time after time, their fliers and certainly the mechanics were asking me about the potential upgrades to the radar system. I am not sure General Ray or Holmes, who is better able to address that.    What is the schedule for that? They certainly are at wits' end waiting for that upgrade, which they had indicated been postponed several times. Thank you.    General Holmes. So thank you, sir, for that question. With your permission, we will both answer a couple of parts of it.    So we canceled the CAPES program, as the chairman said, because it was unaffordable at our current budget level. We have received, as I am sure you know, a joint urgent operational needs request from USNORTHCOM [U.S. Northern Command] to take a look at how we might rapidly equip the F-16s that defend our Nation with advanced electronically scanned antenna radar, with an AESA radar that provides increased capability to those airplanes.    As we look at that the request, that is important for that organization, but it is also part of an entire kill chain that would have to be in place to be able to let it operate. So you need both the sensor on the airplane, and then you need a surveillance system that would help you detect the kind of small cross-section threats that AESA radar gives you capability for, and you need the command and control system to be able to do it.    Those elements are falling in place here in the National Capital Region. And we expect to try to move forward to provide a rapid capability there first, and then see how we would expand it across the country. And I will ask General Ray to talk about the details of that timeline and process.    General Ray. Good morning, sir. Thank you for the question.    We are looking very closely at the capabilities that are required. We take this mission very seriously, defending the Nation's skies. Looking at the F-16 and the options that we have in front of us, we want to make very clear in our minds that we are not limiting the capabilities in any efforts that we take on.    So any of the capabilities that are out there now, existing radars, our ability to integrate that completely and to make a complete upgraded aircraft, is a very lengthy period of time. So to meet the UON [urgent operational need] timelines, which is in the next 18 months, we have to look at putting radars on the airplanes. But we may lose some capabilities over what we actually have right now. So we want to strike the very careful balance between bringing on what we require for this specific mission and not making the capabilities of the airplane less.    Now, we believe that we should have a decision here in the next month or two in terms of exactly how we will do that. We are looking at a couple of options in terms of how we would acquire that. And certainly, there are several different amounts of capability that we can add over time. I believe that we should have a pretty good schedule here in the next 1 to 2 months that would describe how we will get after this problem.    I think that, as General Holmes mentions, the National Capital Region is the easier part in terms of the entire kill chain. We remain concerned about the coverage for the rest of the country and the rest of the F-16 fleet. So I think that makes us focus very close here to the Washington, DC, area and what we need to cover this area with the follow-on effort to go think through how best we will equip those airplanes in the future.</t>
   </si>
   <si>
@@ -112,6 +139,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    Thank you, gentlemen, for your time today and your testimony. Really appreciate it.    General Holmes, wanted to follow up on the discussions on the A-10. Last cycle you stated--or the Air Force stated--there was a savings of $4.2 billion to divest in the A-10. And today you said $4.7 billion, and then another time $4.9 billion. Can you just confirm what the number is?    General Holmes. Yes, ma'am. Thank you. The number is $4.7 billion, is what we are bringing this year.</t>
   </si>
   <si>
@@ -178,6 +211,12 @@
     <t>412614</t>
   </si>
   <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chairman. I will try and keep my comments a little brief and just allow you to answer. To the Navy, I haven't heard anything about the Growler program. Are we on stage there, are we needing more Growlers, especially as the F-35 comes online a Growler is going to be a very useful tool with the F-35.</t>
   </si>
   <si>
@@ -202,6 +241,12 @@
     <t>412579</t>
   </si>
   <si>
+    <t>Veasey</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Veasey. Thank you. Thank you, Mr. Chair. I want----</t>
   </si>
   <si>
@@ -230,6 +275,12 @@
   </si>
   <si>
     <t>400158</t>
+  </si>
+  <si>
+    <t>Graves</t>
+  </si>
+  <si>
+    <t>Sam</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Graves. Real quickly. And Admiral Manazir, you talked about the shortfall. And I am very concerned about this. When we have fewer airframes out there to do the job, we put a lot of operational fatigue on those airplanes. And you talked about this.    And just for the record again, and so I can start working to rectify this, how many airplanes do you need, how many Super Hornets do you need to eliminate that shortfall? How many do you need to procure?</t>
@@ -590,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +649,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,1373 +671,1643 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
       <c r="H28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G39" t="s">
+        <v>65</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G41" t="s">
+        <v>65</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G42" t="s">
+        <v>65</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G44" t="s">
+        <v>65</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
       <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G53" t="s">
+        <v>75</v>
+      </c>
       <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G55" t="s">
+        <v>87</v>
+      </c>
       <c r="H55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G57" t="s">
+        <v>87</v>
+      </c>
       <c r="H57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94234.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94234.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412513</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Cook</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>400356</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sanchez</t>
   </si>
   <si>
@@ -119,6 +128,9 @@
   </si>
   <si>
     <t>412606</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Norcross</t>
@@ -641,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,7 +661,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,1640 +686,1796 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I42" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G44" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H48" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="H55" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="H57" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>92</v>
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
